--- a/database design in excel/CI PLATFORM DATABASE DESIGN.xlsx
+++ b/database design in excel/CI PLATFORM DATABASE DESIGN.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="178">
   <si>
     <t>CI PLATFORM DATABASE</t>
   </si>
@@ -472,13 +472,16 @@
     <t>video_file_url</t>
   </si>
   <si>
-    <t>event_photo_path</t>
-  </si>
-  <si>
     <t>story_Type</t>
   </si>
   <si>
     <t>views</t>
+  </si>
+  <si>
+    <t>user_Story_documents</t>
+  </si>
+  <si>
+    <t>story_docs_id</t>
   </si>
   <si>
     <t>story_invite</t>
@@ -635,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -729,6 +732,15 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -772,7 +784,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="23">
+  <tableStyles count="24">
     <tableStyle count="3" pivot="0" name="Sheet1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -884,6 +896,11 @@
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Sheet1-style 23">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Sheet1-style 24">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1057,7 +1074,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A212:H224" displayName="Table_19" id="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A212:H223" displayName="Table_19" id="19">
   <tableColumns count="8">
     <tableColumn name="Field" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -1089,7 +1106,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A228:H234" displayName="Table_20" id="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A227:H235" displayName="Table_20" id="20">
   <tableColumns count="8">
     <tableColumn name="Field" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -1105,7 +1122,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A238:H247" displayName="Table_21" id="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A239:H245" displayName="Table_21" id="21">
   <tableColumns count="8">
     <tableColumn name="Field" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -1121,7 +1138,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A251:H259" displayName="Table_22" id="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A249:H258" displayName="Table_22" id="22">
   <tableColumns count="8">
     <tableColumn name="Field" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -1137,7 +1154,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A263:H271" displayName="Table_23" id="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A262:H270" displayName="Table_23" id="23">
   <tableColumns count="8">
     <tableColumn name="Field" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -1149,6 +1166,22 @@
     <tableColumn name="Key" id="8"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style 23" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A274:H282" displayName="Table_24" id="24">
+  <tableColumns count="8">
+    <tableColumn name="Field" id="1"/>
+    <tableColumn name="Type" id="2"/>
+    <tableColumn name="Size" id="3"/>
+    <tableColumn name="Null" id="4"/>
+    <tableColumn name="Default Values" id="5"/>
+    <tableColumn name="Extra" id="6"/>
+    <tableColumn name="Attribute" id="7"/>
+    <tableColumn name="Key" id="8"/>
+  </tableColumns>
+  <tableStyleInfo name="Sheet1-style 24" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1462,6 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5701,7 +5735,7 @@
         <v>18</v>
       </c>
       <c r="C218" s="5">
-        <v>118.0</v>
+        <v>20.0</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>19</v>
@@ -5724,16 +5758,16 @@
         <v>154</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C219" s="5">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E219" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E219" s="5">
+        <v>0.0</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>21</v>
@@ -5747,19 +5781,19 @@
     </row>
     <row r="220">
       <c r="A220" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C220" s="5">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E220" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>21</v>
@@ -5768,24 +5802,24 @@
         <v>21</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="5" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C221" s="5">
-        <v>4.0</v>
+        <v>31</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E221" s="5">
-        <v>1.0</v>
+      <c r="E221" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>21</v>
@@ -5794,12 +5828,12 @@
         <v>21</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>31</v>
@@ -5808,10 +5842,10 @@
         <v>21</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>21</v>
@@ -5825,7 +5859,7 @@
     </row>
     <row r="223">
       <c r="A223" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>31</v>
@@ -5849,309 +5883,311 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="5" t="s">
+    <row r="226">
+      <c r="A226" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G227" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="32">
+        <v>20.0</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G228" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H228" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="33">
+        <v>20.0</v>
+      </c>
+      <c r="D229" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E229" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G229" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" s="32">
+        <v>118.0</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G230" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H230" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C231" s="33">
+        <v>118.0</v>
+      </c>
+      <c r="D231" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F231" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G231" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H231" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="32">
+        <v>255.0</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E232" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G232" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H232" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F233" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G233" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H233" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G234" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H234" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B235" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D224" s="5" t="s">
+      <c r="C235" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E224" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G224" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H224" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F228" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G228" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H228" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="5" t="s">
+      <c r="E235" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G235" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H235" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C229" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G229" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H229" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C230" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H230" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C231" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G231" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H231" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C232" s="5">
-        <v>128.0</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G232" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H232" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C233" s="5">
-        <v>128.0</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G233" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E234" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G234" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H234" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H238" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="5" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C239" s="5">
-        <v>20.0</v>
+        <v>3</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="5" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C240" s="5">
         <v>20.0</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C241" s="5">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>24</v>
@@ -6159,25 +6195,23 @@
       <c r="E241" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F241" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F241" s="5"/>
       <c r="G241" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="5" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C242" s="5">
-        <v>255.0</v>
+        <v>20.0</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>24</v>
@@ -6189,21 +6223,21 @@
         <v>21</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="5" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C243" s="5">
+        <v>128.0</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>24</v>
@@ -6223,19 +6257,19 @@
     </row>
     <row r="244">
       <c r="A244" s="5" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C244" s="5">
-        <v>3.0</v>
+        <v>128.0</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>21</v>
@@ -6249,19 +6283,19 @@
     </row>
     <row r="245">
       <c r="A245" s="5" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C245" s="5">
-        <v>3.0</v>
+        <v>31</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>21</v>
@@ -6273,98 +6307,98 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E246" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H246" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C247" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F247" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G247" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>21</v>
+    <row r="248">
+      <c r="A248" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="11" t="s">
-        <v>170</v>
+      <c r="A250" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="5" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C251" s="5">
+        <v>20.0</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C252" s="5">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>24</v>
@@ -6373,24 +6407,24 @@
         <v>13</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="5" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C253" s="5">
-        <v>512.0</v>
+        <v>255.0</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>24</v>
@@ -6410,13 +6444,13 @@
     </row>
     <row r="254">
       <c r="A254" s="5" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C254" s="5">
-        <v>218.0</v>
+        <v>65</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>24</v>
@@ -6436,13 +6470,13 @@
     </row>
     <row r="255">
       <c r="A255" s="5" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C255" s="5">
+        <v>3.0</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>19</v>
@@ -6462,19 +6496,19 @@
     </row>
     <row r="256">
       <c r="A256" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C256" s="5">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E256" s="5">
-        <v>0.0</v>
+        <v>19</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>21</v>
@@ -6488,19 +6522,19 @@
     </row>
     <row r="257">
       <c r="A257" s="5" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>21</v>
@@ -6514,19 +6548,19 @@
     </row>
     <row r="258">
       <c r="A258" s="5" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C258" s="5">
+        <v>30.0</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>21</v>
@@ -6538,72 +6572,72 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H259" s="5" t="s">
-        <v>21</v>
+    <row r="261">
+      <c r="A261" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="11" t="s">
-        <v>174</v>
+      <c r="A262" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="5" t="s">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C263" s="5">
+        <v>20.0</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C264" s="5">
-        <v>20.0</v>
+        <v>512.0</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>24</v>
@@ -6612,13 +6646,13 @@
         <v>13</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265">
@@ -6649,7 +6683,7 @@
     </row>
     <row r="266">
       <c r="A266" s="5" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>43</v>
@@ -6658,10 +6692,10 @@
         <v>21</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F266" s="5" t="s">
         <v>21</v>
@@ -6675,19 +6709,19 @@
     </row>
     <row r="267">
       <c r="A267" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C267" s="5">
-        <v>255.0</v>
+        <v>10.0</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E267" s="5" t="s">
-        <v>13</v>
+      <c r="E267" s="5">
+        <v>0.0</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>21</v>
@@ -6701,19 +6735,19 @@
     </row>
     <row r="268">
       <c r="A268" s="5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E268" s="5">
-        <v>1.0</v>
+      <c r="E268" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>21</v>
@@ -6727,7 +6761,7 @@
     </row>
     <row r="269">
       <c r="A269" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>31</v>
@@ -6736,10 +6770,10 @@
         <v>21</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>21</v>
@@ -6753,7 +6787,7 @@
     </row>
     <row r="270">
       <c r="A270" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>31</v>
@@ -6777,52 +6811,250 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="5" t="s">
+    <row r="273">
+      <c r="A273" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" s="5">
+        <v>218.0</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G277" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C278" s="5">
+        <v>255.0</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E279" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G279" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G281" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B271" s="5" t="s">
+      <c r="B282" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D271" s="5" t="s">
+      <c r="C282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D282" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E271" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G271" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H271" s="5" t="s">
+      <c r="E282" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H282" s="5" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A205:H205"/>
-    <mergeCell ref="A211:H211"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A237:H237"/>
-    <mergeCell ref="A250:H250"/>
-    <mergeCell ref="A262:H262"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A100:H100"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="A150:H150"/>
-    <mergeCell ref="A169:H169"/>
-    <mergeCell ref="A181:H181"/>
-    <mergeCell ref="A193:H193"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="A157:H157"/>
+  <mergeCells count="29">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H4"/>
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A5:H5"/>
@@ -6830,13 +7062,31 @@
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A52:H52"/>
     <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="G1:H4"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="A193:H193"/>
+    <mergeCell ref="A205:H205"/>
+    <mergeCell ref="A211:H211"/>
+    <mergeCell ref="A238:H238"/>
+    <mergeCell ref="A248:H248"/>
+    <mergeCell ref="A261:H261"/>
+    <mergeCell ref="A273:H273"/>
+    <mergeCell ref="A226:H226"/>
+    <mergeCell ref="A110:H110"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A150:H150"/>
+    <mergeCell ref="A157:H157"/>
+    <mergeCell ref="A169:H169"/>
+    <mergeCell ref="A181:H181"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="5" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
-  <tableParts count="23">
-    <tablePart r:id="rId25"/>
+  <tableParts count="24">
     <tablePart r:id="rId26"/>
     <tablePart r:id="rId27"/>
     <tablePart r:id="rId28"/>
@@ -6859,6 +7109,8 @@
     <tablePart r:id="rId45"/>
     <tablePart r:id="rId46"/>
     <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
 </file>